--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N2">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O2">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P2">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q2">
-        <v>426.2694800463997</v>
+        <v>71.82593126032167</v>
       </c>
       <c r="R2">
-        <v>3836.425320417598</v>
+        <v>646.433381342895</v>
       </c>
       <c r="S2">
-        <v>0.115386787038498</v>
+        <v>0.03029251108670834</v>
       </c>
       <c r="T2">
-        <v>0.115386787038498</v>
+        <v>0.03029251108670834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q3">
-        <v>6.768400389512222</v>
+        <v>1.260385774141667</v>
       </c>
       <c r="R3">
-        <v>60.91560350561</v>
+        <v>11.343471967275</v>
       </c>
       <c r="S3">
-        <v>0.001832136737190106</v>
+        <v>0.0005315663767496124</v>
       </c>
       <c r="T3">
-        <v>0.001832136737190106</v>
+        <v>0.0005315663767496125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N4">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O4">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P4">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q4">
-        <v>15.29471128165711</v>
+        <v>6.85716599596</v>
       </c>
       <c r="R4">
-        <v>137.652401534914</v>
+        <v>61.71449396364</v>
       </c>
       <c r="S4">
-        <v>0.004140121862066648</v>
+        <v>0.002892002558284512</v>
       </c>
       <c r="T4">
-        <v>0.004140121862066649</v>
+        <v>0.002892002558284512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N5">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O5">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P5">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q5">
-        <v>1775.016223460558</v>
+        <v>1606.1344679266</v>
       </c>
       <c r="R5">
-        <v>15975.14601114502</v>
+        <v>14455.2102113394</v>
       </c>
       <c r="S5">
-        <v>0.4804787313040294</v>
+        <v>0.6773855252927078</v>
       </c>
       <c r="T5">
-        <v>0.4804787313040295</v>
+        <v>0.6773855252927078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q6">
-        <v>28.18409729205389</v>
+        <v>28.1840972920539</v>
       </c>
       <c r="R6">
-        <v>253.656875628485</v>
+        <v>253.6568756284851</v>
       </c>
       <c r="S6">
-        <v>0.007629146782351249</v>
+        <v>0.01188661343761859</v>
       </c>
       <c r="T6">
-        <v>0.00762914678235125</v>
+        <v>0.0118866134376186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N7">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O7">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P7">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q7">
-        <v>63.68825808296545</v>
+        <v>153.3364129799974</v>
       </c>
       <c r="R7">
-        <v>573.1943227466891</v>
+        <v>1380.027716819976</v>
       </c>
       <c r="S7">
-        <v>0.0172397598614663</v>
+        <v>0.064669471160183</v>
       </c>
       <c r="T7">
-        <v>0.01723975986146631</v>
+        <v>0.064669471160183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N8">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O8">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P8">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q8">
-        <v>1311.179954131564</v>
+        <v>452.3563877587538</v>
       </c>
       <c r="R8">
-        <v>11800.61958718408</v>
+        <v>4071.207489828785</v>
       </c>
       <c r="S8">
-        <v>0.3549229987566974</v>
+        <v>0.1907808315308994</v>
       </c>
       <c r="T8">
-        <v>0.3549229987566975</v>
+        <v>0.1907808315308994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q9">
-        <v>20.81920317471166</v>
+        <v>7.937851218480556</v>
       </c>
       <c r="R9">
-        <v>187.372828572405</v>
+        <v>71.440660966325</v>
       </c>
       <c r="S9">
-        <v>0.005635545295830676</v>
+        <v>0.00334778041608627</v>
       </c>
       <c r="T9">
-        <v>0.005635545295830677</v>
+        <v>0.003347780416086271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N10">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O10">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P10">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q10">
-        <v>47.04563609516633</v>
+        <v>43.18611378601333</v>
       </c>
       <c r="R10">
-        <v>423.410724856497</v>
+        <v>388.67502407412</v>
       </c>
       <c r="S10">
-        <v>0.01273477236187011</v>
+        <v>0.01821369814076251</v>
       </c>
       <c r="T10">
-        <v>0.01273477236187011</v>
+        <v>0.01821369814076251</v>
       </c>
     </row>
   </sheetData>
